--- a/Resources/Capacitaciones.xlsx
+++ b/Resources/Capacitaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\source\repos\Saratyc\Saratyc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1128D-36F9-4100-8F1A-3A45B81E1A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB5C5D-98A6-407F-A5BF-8AE2E132664C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>IDAUXILIAR</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>TEMA_5</t>
+  </si>
+  <si>
+    <t>41796003</t>
+  </si>
+  <si>
+    <t>51637213</t>
+  </si>
+  <si>
+    <t>Discapacidad auditiva</t>
+  </si>
+  <si>
+    <t>Oxigeno</t>
+  </si>
+  <si>
+    <t>Sonda Orogástrica</t>
+  </si>
+  <si>
+    <t>Nefrostomia</t>
   </si>
 </sst>
 </file>
@@ -379,16 +397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -464,7 +485,7 @@
         <v>1015396096</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -481,7 +502,7 @@
         <v>1015396096</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -495,7 +516,7 @@
         <v>1015396096</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -509,7 +530,7 @@
         <v>1015396096</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -592,6 +613,894 @@
       </c>
       <c r="E13" s="1">
         <v>44208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1019014407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1019014407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1019014407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1019014407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1019014407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1069078218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1069078218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1069078218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1069078218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1069078218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1071629228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1071629228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1071629228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1071629228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1071629228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>1071629228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1116794759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1116794759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1116794759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1116794759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>1116794759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>20964966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>20964966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>20964966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>20964966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>20964966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>20964966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>20964966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>23415801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>23415801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>23415801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>23415801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>23415801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>23415801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>24212282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>24212282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>24212282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>24212282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>24212282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>24212282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>25874713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>25874713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>25874713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>25874713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>28689301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>30333182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>30333182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>30333182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>30333182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>30333182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>30333182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>30724286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>30724286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>30724286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>30724286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>30724286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>30724286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>34941725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>15</v>
+      </c>
+      <c r="B91">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>15</v>
+      </c>
+      <c r="B92">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>15</v>
+      </c>
+      <c r="B95">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>39722971</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
